--- a/medicine/Mort/Liste_de_suicides_dans_une_œuvre_d'opéra/Liste_de_suicides_dans_une_œuvre_d'opéra.xlsx
+++ b/medicine/Mort/Liste_de_suicides_dans_une_œuvre_d'opéra/Liste_de_suicides_dans_une_œuvre_d'opéra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_suicides_dans_une_%C5%93uvre_d%27op%C3%A9ra</t>
+          <t>Liste_de_suicides_dans_une_œuvre_d'opéra</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le suicide est un thème particulièrement courant à l'opéra.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_suicides_dans_une_%C5%93uvre_d%27op%C3%A9ra</t>
+          <t>Liste_de_suicides_dans_une_œuvre_d'opéra</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Nombre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans l'intrigue des 104 opéras les plus fréquemment représentés entre 1850 et 1971 dans une sélection de 14 grandes salles dans le monde, dont 3 aux États-Unis, Walley et Kalish[1] dénombrent 28 opéras contenant au moins un suicide.
-Dans l'intrigue des 306 opéras recensés par l'édition 1976 du Complete Opera Book[a], Feggetter[2] dénombre 77 suicides (32 hommes et 45 femmes), dont 7 meurtres-suicides, ainsi que 12 tentatives de suicide (7 hommes et 5 femmes).
-Dans l'intrigue des 50 opéras les plus fréquemment représentés dans les salles d'opéra contemporaines d'après L'Opéra pour les nuls[b], Stack[3] dénombre 10 opéras contenant au moins un suicide.
-Dans l'intrigue des 337 opéras recensés par l'édition 2007 du Rough Guide to Opera[c], Pridmore et al.[4] dénombrent 74 opéras contenant au moins un suicide (56 % de femmes), et 48 opéras contenant des tentatives de suicide ou des idées suicidaires (57 % d'hommes).
-Eddie Persson a recensé 29 % de suicides parmi les décès de personnages de 150 opéras du répertoire classique, de L'incoronazione di Poppea (1642) aux Dialogues des carmélites (1957)[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans l'intrigue des 104 opéras les plus fréquemment représentés entre 1850 et 1971 dans une sélection de 14 grandes salles dans le monde, dont 3 aux États-Unis, Walley et Kalish dénombrent 28 opéras contenant au moins un suicide.
+Dans l'intrigue des 306 opéras recensés par l'édition 1976 du Complete Opera Book[a], Feggetter dénombre 77 suicides (32 hommes et 45 femmes), dont 7 meurtres-suicides, ainsi que 12 tentatives de suicide (7 hommes et 5 femmes).
+Dans l'intrigue des 50 opéras les plus fréquemment représentés dans les salles d'opéra contemporaines d'après L'Opéra pour les nuls[b], Stack dénombre 10 opéras contenant au moins un suicide.
+Dans l'intrigue des 337 opéras recensés par l'édition 2007 du Rough Guide to Opera[c], Pridmore et al. dénombrent 74 opéras contenant au moins un suicide (56 % de femmes), et 48 opéras contenant des tentatives de suicide ou des idées suicidaires (57 % d'hommes).
+Eddie Persson a recensé 29 % de suicides parmi les décès de personnages de 150 opéras du répertoire classique, de L'incoronazione di Poppea (1642) aux Dialogues des carmélites (1957).
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_suicides_dans_une_%C5%93uvre_d%27op%C3%A9ra</t>
+          <t>Liste_de_suicides_dans_une_œuvre_d'opéra</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Liste</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tableau ci-dessous recense les suicides à l'opéra[6], triés par date de création de l'opéra.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tableau ci-dessous recense les suicides à l'opéra, triés par date de création de l'opéra.
 Après le librettiste est indiqué entre parenthèses, le cas échéant, l'auteur dont il s'est inspiré.
 « S » indique un suicide, « TS » une tentative de suicide et « M‑S » un meurtre-suicide.
 </t>
